--- a/biology/Microbiologie/Dénombrement_microbiologique/Dénombrement_microbiologique.xlsx
+++ b/biology/Microbiologie/Dénombrement_microbiologique/Dénombrement_microbiologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9nombrement_microbiologique</t>
+          <t>Dénombrement_microbiologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dénombrement microbien, ou numération, a pour but de déterminer la concentration en bactérie ou moisissures dans un produit alimentaire afin de contrôler la qualité des produits destinés à la consommation. 
 Afin de réaliser un bon dénombrement, il faut tout d'abord réaliser une gamme de dilutions en milieu liquide du produit allant d'un facteur 100 à 10-x, x étant le facteur que le manipulateur va définir en fonction de la matrice à analyser (cf : article Dilution). Ensuite, le dénombrement peut s'effectuer sur différents types de milieux. La numération sur milieu pris en masse peut être réalisée en surface ou dans la masse. La numération sur milieu liquide se fait par incubation de germe dans un milieu qui ne prend pas en masse.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9nombrement_microbiologique</t>
+          <t>Dénombrement_microbiologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,118 +522,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Manipulations préliminaires : dilutions</t>
+          <t>Dénombrement sur des milieux alternatifs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Manipulations concernant une matrice solide
-Manipulations concernant une matrice liquide
-Manipulations concernant une matrice semi-liquide
-Quelques exemples de matrices</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D%C3%A9nombrement_microbiologique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9nombrement_microbiologique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Dénombrement sur un milieu gélosé pris en masse</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dénombrement en surface ou en masse sur une gélose nutritive
-Protocole d'ensemencement
-Exploitation des résultats</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D%C3%A9nombrement_microbiologique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9nombrement_microbiologique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Dénombrement sur un milieu liquide</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dénombrement à l'aide de la technique du nombre le plus probable (NPP)
-Protocole d'ensemencement
-Exploitation des résultats
-Dénombrement à l'aide d'un hématimètre
-Protocole d'ensemencement
-Exploitation des résultats</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D%C3%A9nombrement_microbiologique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9nombrement_microbiologique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Dénombrement sur des milieux alternatifs</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dénombrement des micro-organismes par micro filtration
-Protocole d'ensemencement
-Exploitation des résultats
-Dénombrement des micro-organismes sur pétrifilm
-Protocole d'ensemencement
-Exploitation des résultats
- Portail de la microbiologie                     </t>
+          <t>Dénombrement des micro-organismes sur pétrifilm</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Exploitation des résultats</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portail de la microbiologie                     </t>
         </is>
       </c>
     </row>
